--- a/org.panorama-research.mobstr.fmea/mobstr-fmea.xlsx
+++ b/org.panorama-research.mobstr.fmea/mobstr-fmea.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Integrated Safety Analysis\Additional Artifacts\org.panorama-research.mobstr.fmea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6B31C5-AC79-479A-B410-DF4424272C0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C97ACC0-157D-4942-B210-57B19A02A514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,9 +361,6 @@
     <t>Internal failure leading to an erroneously calculated vehicle position</t>
   </si>
   <si>
-    <t>No information about the vehicle postion and distance to obstacles around the vehicle</t>
-  </si>
-  <si>
     <t>Incorrect vehicle position information on the road</t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>- Add plausibility checks in the "Localization" component</t>
+  </si>
+  <si>
+    <t>No information about the vehicle postion and distance to objects around the vehicle</t>
   </si>
 </sst>
 </file>
@@ -677,6 +677,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,13 +695,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -703,12 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1087,10 +1087,10 @@
       <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1108,8 +1108,8 @@
       <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1127,8 +1127,8 @@
       <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1141,15 +1141,15 @@
         <v>84</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1161,16 +1161,16 @@
         <v>35</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -1180,16 +1180,16 @@
         <v>36</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
@@ -1199,16 +1199,16 @@
         <v>34</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -1221,15 +1221,15 @@
         <v>85</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="28"/>
+      <c r="F9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -1242,13 +1242,13 @@
         <v>86</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -1261,13 +1261,13 @@
         <v>87</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -1277,16 +1277,16 @@
         <v>34</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -1304,10 +1304,10 @@
       <c r="E13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="33" t="s">
+      <c r="F13" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1322,13 +1322,13 @@
         <v>37</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
@@ -1341,13 +1341,13 @@
         <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1360,13 +1360,13 @@
         <v>88</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1379,13 +1379,13 @@
         <v>89</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
@@ -1403,10 +1403,10 @@
       <c r="E18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1424,8 +1424,8 @@
       <c r="E19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -1443,8 +1443,8 @@
       <c r="E20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
@@ -1462,8 +1462,8 @@
       <c r="E21" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>120</v>
+      <c r="F21" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="G21" s="35"/>
     </row>
@@ -1478,12 +1478,12 @@
         <v>79</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
       <c r="E23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       <c r="E24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>47</v>
@@ -1540,7 +1540,7 @@
       <c r="E25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
       <c r="E26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1578,10 +1578,10 @@
       <c r="E27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="24"/>
+      <c r="F27" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -1599,8 +1599,8 @@
       <c r="E28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
@@ -1618,8 +1618,8 @@
       <c r="E29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -1637,8 +1637,8 @@
       <c r="E30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
@@ -1651,15 +1651,15 @@
         <v>57</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="24"/>
+      <c r="F31" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
@@ -1672,13 +1672,13 @@
         <v>91</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -1688,7 +1688,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>68</v>
@@ -1696,8 +1696,8 @@
       <c r="E33" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
@@ -1710,15 +1710,15 @@
         <v>16</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="27" t="s">
+      <c r="F34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1738,8 +1738,8 @@
       <c r="E35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="28"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -1758,9 +1758,9 @@
         <v>72</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="29"/>
+        <v>116</v>
+      </c>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
@@ -1770,7 +1770,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>60</v>
@@ -1778,10 +1778,10 @@
       <c r="E37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="24"/>
+      <c r="F37" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
@@ -1791,7 +1791,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>61</v>
@@ -1799,8 +1799,8 @@
       <c r="E38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="25"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -1810,7 +1810,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>62</v>
@@ -1818,8 +1818,8 @@
       <c r="E39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="25"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -1837,8 +1837,8 @@
       <c r="E40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="25"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -1856,8 +1856,8 @@
       <c r="E41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="25"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -1875,19 +1875,12 @@
       <c r="E42" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="26"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E42" xr:uid="{B9B70FAE-7494-4AA5-A162-30F7ED38B07D}"/>
   <mergeCells count="19">
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="F9:F12"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="F37:F42"/>
@@ -1900,6 +1893,13 @@
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G27:G30"/>
     <mergeCell ref="G21:G26"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1908,21 +1908,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8BF8AD2CAD39C4483D7F965FF3D8B2B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24e68404dbcef7c3ced18f2a35ffd611">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87bf51a5-bbf2-42bf-8c60-53cba217be3e" xmlns:ns4="825d3c09-a142-446a-97b7-66abec77a3de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2039e13cd657536bb3efc8aedf1fcacd" ns3:_="" ns4:_="">
     <xsd:import namespace="87bf51a5-bbf2-42bf-8c60-53cba217be3e"/>
@@ -2145,10 +2130,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165D673A-C958-4AE6-B858-279C0AAD166A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F86CF02-21FC-41E1-B028-6EB4664167B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87bf51a5-bbf2-42bf-8c60-53cba217be3e"/>
+    <ds:schemaRef ds:uri="825d3c09-a142-446a-97b7-66abec77a3de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2171,20 +2182,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F86CF02-21FC-41E1-B028-6EB4664167B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165D673A-C958-4AE6-B858-279C0AAD166A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87bf51a5-bbf2-42bf-8c60-53cba217be3e"/>
-    <ds:schemaRef ds:uri="825d3c09-a142-446a-97b7-66abec77a3de"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>